--- a/src/main/resources/root/jp/blank_getconfig.xlsx
+++ b/src/main/resources/root/jp/blank_getconfig.xlsx
@@ -637,7 +637,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="3.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="0" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,7 +2134,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="atEnd" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -2463,19 +2463,15 @@
       <c r="I24" s="15"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4" type="list">
-      <formula1>"Linux,Windows,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachVSP,NetAPP,Eternus,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5:B24" type="list">
-      <formula1>"Linux,Windows,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachVSP,NetAPP,Eternus,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4:B24" type="list">
+      <formula1>"Linux,Windows,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachiVSP,NetAPP,Eternus,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -3102,7 +3098,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/src/main/resources/root/jp/blank_getconfig.xlsx
+++ b/src/main/resources/root/jp/blank_getconfig.xlsx
@@ -13,7 +13,7 @@
     <sheet name="パラメータ(Packages)" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">利用手順!$A$1:$K$84</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">利用手順!$A$1:$K$85</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
   <si>
     <t xml:space="preserve">1. プロジェクト作成</t>
   </si>
@@ -243,7 +243,10 @@
     <t xml:space="preserve">run コマンドを実行して、検査対象のインベントリ収集を行います。</t>
   </si>
   <si>
-    <t xml:space="preserve">getcf run # チュートリアルを実行する場合は、-dオプションを追加してください</t>
+    <t xml:space="preserve">初期出荷時は --level オプションにて詳細 レベル(2) を指定してください。通常運用時は指定なし(レベル(0))にします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getcf run --level 2 # チュートリアルを実行する場合は、-dオプションを追加してください</t>
   </si>
   <si>
     <t xml:space="preserve">build ディレクトリ下に生成された、「check_sheet_{日付}.xlsx」を開いて検査結果を確認します。</t>
@@ -626,7 +629,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1820,7 +1823,9 @@
     </row>
     <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -1835,38 +1840,36 @@
     <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="25"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
+      <c r="C72" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="25"/>
       <c r="L72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -1880,7 +1883,9 @@
     </row>
     <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -1893,9 +1898,7 @@
       <c r="L74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1909,7 +1912,9 @@
       <c r="L75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1924,9 +1929,7 @@
     </row>
     <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -1940,7 +1943,9 @@
     </row>
     <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -1955,38 +1960,36 @@
     <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="25"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+      <c r="C80" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="25"/>
       <c r="L80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
-      <c r="B81" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2000,7 +2003,9 @@
     </row>
     <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2015,9 +2020,7 @@
     <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2031,39 +2034,39 @@
     <row r="84" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="25"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
+      <c r="C85" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="25"/>
       <c r="L85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -2077,36 +2080,52 @@
     <row r="87" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="25"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
+      <c r="C88" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="25"/>
       <c r="L88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="0" t="s">
-        <v>82</v>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +2484,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4:B24" type="list">
-      <formula1>"Linux,Windows,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachiVSP,NetAPP,Eternus,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
+      <formula1>"Linux,Windows,Windows.py,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachiVSP,NetApp,Eternus,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2495,55 +2514,55 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/root/jp/blank_getconfig.xlsx
+++ b/src/main/resources/root/jp/blank_getconfig.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\getconfig\getconfig\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C962C11-06AD-4132-8B69-87C8E9F986C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="19020" windowHeight="9120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="利用手順" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="検査対象" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="パラメータ(Packages)" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="利用手順" sheetId="1" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="2" r:id="rId2"/>
+    <sheet name="パラメータ(Packages)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">利用手順!$A$1:$K$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$K$85</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -27,266 +32,263 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
   <si>
-    <t xml:space="preserve">1. プロジェクト作成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerShell コンソールを開いて、「getcf init "プロジェクトディレクトリ"」でプロジェクトを作成 します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ここでは、C:\Users\Administrator\Desktop の下に、 test_project1 という名前のプロジェクト を作成します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cd ~\Desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getcf init test_project1 # サンプルを実行する場合、 -t オプションを追加</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. 検査シート編集</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作成したプロジェクトディレクトリ直下にある Excel ファイル(本ファイル)を開きます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)は必須入力項目となります。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">共通設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">対象サーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プラットフォーム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL,IPアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パスワード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エイリアス名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比較対象</t>
-  </si>
-  <si>
-    <t xml:space="preserve">接続オプション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">server_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare_server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">session_option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">centos80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">centos75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">centos72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cent7g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cent75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P@ssw0rd20A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">検査対象サーバのホスト名を入力します。プラットフォームが複数行ある場合は、2行目以降を空欄にします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プルダウンメニューから検査対象プラットフォームを選択します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">接続先のIPもしくはURLを入力します。　※１</t>
-  </si>
-  <si>
-    <t xml:space="preserve">後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。　※１</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザIDを使用せずに、サーバ固有のユーザ名を指定する場合は入力してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザIDを使用せずに、サーバ固有のパスワードを指定する場合は入力してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">検査対象サーバでサーバ名に別名がある場合は入力します。VMWareで仮想マシン名が異なる時に使用します。※１</t>
-  </si>
-  <si>
-    <t xml:space="preserve">検査結果をサーバ間で比較したい場合に比較対象サーバ名を入力します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">接続オプションを入力します。　※１</t>
-  </si>
-  <si>
-    <t xml:space="preserve">※１　詳細は、lib\dictionary下の各プラットフォーム定義ファイル内ヘルプを参照してください</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. 設定ファイル(config.groovy)編集</t>
-  </si>
-  <si>
-    <t xml:space="preserve">設定ファイルを編集します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cd '作成したプロジェクトディレクトリ'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notepad++ .\config\config.groovy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「account.{プラットフォーム}.{アカウントID}.{定義名}」のパラメータ形式の各検査対象の接続アカウントIDを編集します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">// vCenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.VMWare.Account01.server   = '192.168.0.200'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.VMWare.Account01.user     = 'test_user'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.VMWare.Account01.password = 'P@ssword'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">// Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.Linux.Account01.user      = 'psadmin'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.Linux.Account01.password  = 'psadmin'</t>
+    <t>1. プロジェクト作成</t>
+  </si>
+  <si>
+    <t>PowerShell コンソールを開いて、「getcf init "プロジェクトディレクトリ"」でプロジェクトを作成 します。</t>
+  </si>
+  <si>
+    <t>ここでは、C:\Users\Administrator\Desktop の下に、 test_project1 という名前のプロジェクト を作成します。</t>
+  </si>
+  <si>
+    <t>cd ~\Desktop</t>
+  </si>
+  <si>
+    <t>getcf init test_project1 # サンプルを実行する場合、 -t オプションを追加</t>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>作成したプロジェクトディレクトリ直下にある Excel ファイル(本ファイル)を開きます。</t>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)は必須入力項目となります。</t>
+  </si>
+  <si>
+    <t>共通設定</t>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+  </si>
+  <si>
+    <t>プラットフォーム</t>
+  </si>
+  <si>
+    <t>URL,IPアドレス</t>
+  </si>
+  <si>
+    <t>ユーザID</t>
+  </si>
+  <si>
+    <t>ユーザ</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>エイリアス名</t>
+  </si>
+  <si>
+    <t>比較対象</t>
+  </si>
+  <si>
+    <t>接続オプション</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>remote_alias</t>
+  </si>
+  <si>
+    <t>compare_server</t>
+  </si>
+  <si>
+    <t>session_option</t>
+  </si>
+  <si>
+    <t>centos80</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>192.168.0.5</t>
+  </si>
+  <si>
+    <t>Account01</t>
+  </si>
+  <si>
+    <t>centos75</t>
+  </si>
+  <si>
+    <t>VMWare</t>
+  </si>
+  <si>
+    <t>centos72</t>
+  </si>
+  <si>
+    <t>192.168.0.16</t>
+  </si>
+  <si>
+    <t>cent7g</t>
+  </si>
+  <si>
+    <t>192.168.0.54</t>
+  </si>
+  <si>
+    <t>cent75</t>
+  </si>
+  <si>
+    <t>w2019</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>192.168.0.20</t>
+  </si>
+  <si>
+    <t>P@ssw0rd20A</t>
+  </si>
+  <si>
+    <t>w2016</t>
+  </si>
+  <si>
+    <t>192.168.0.27</t>
+  </si>
+  <si>
+    <t>(*)</t>
+  </si>
+  <si>
+    <t>検査対象サーバのホスト名を入力します。プラットフォームが複数行ある場合は、2行目以降を空欄にします。</t>
+  </si>
+  <si>
+    <t>プルダウンメニューから検査対象プラットフォームを選択します。</t>
+  </si>
+  <si>
+    <t>接続先のIPもしくはURLを入力します。　※１</t>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。　※１</t>
+  </si>
+  <si>
+    <t>ユーザIDを使用せずに、サーバ固有のユーザ名を指定する場合は入力してください。</t>
+  </si>
+  <si>
+    <t>ユーザIDを使用せずに、サーバ固有のパスワードを指定する場合は入力してください。</t>
+  </si>
+  <si>
+    <t>検査対象サーバでサーバ名に別名がある場合は入力します。VMWareで仮想マシン名が異なる時に使用します。※１</t>
+  </si>
+  <si>
+    <t>検査結果をサーバ間で比較したい場合に比較対象サーバ名を入力します。</t>
+  </si>
+  <si>
+    <t>接続オプションを入力します。　※１</t>
+  </si>
+  <si>
+    <t>※１　詳細は、lib\dictionary下の各プラットフォーム定義ファイル内ヘルプを参照してください</t>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>cd '作成したプロジェクトディレクトリ'</t>
+  </si>
+  <si>
+    <t>notepad++ .\config\config.groovy</t>
+  </si>
+  <si>
+    <t>「account.{プラットフォーム}.{アカウントID}.{定義名}」のパラメータ形式の各検査対象の接続アカウントIDを編集します。</t>
+  </si>
+  <si>
+    <t>// vCenter</t>
+  </si>
+  <si>
+    <t>account.VMWare.Account01.server   = '192.168.0.200'</t>
+  </si>
+  <si>
+    <t>account.VMWare.Account01.user     = 'test_user'</t>
+  </si>
+  <si>
+    <t>account.VMWare.Account01.password = 'P@ssword'</t>
+  </si>
+  <si>
+    <t>// Linux</t>
+  </si>
+  <si>
+    <t>account.Linux.Account01.user      = 'psadmin'</t>
+  </si>
+  <si>
+    <t>account.Linux.Account01.password  = 'psadmin'</t>
   </si>
   <si>
     <t xml:space="preserve">// Windows </t>
   </si>
   <si>
-    <t xml:space="preserve">account.Windows.Account01.user     = 'administrator'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.Windows.Account01.password = 'P@ssw0rd'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. インベントリ収集実行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">run コマンドを実行して、検査対象のインベントリ収集を行います。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初期出荷時は --level オプションにて詳細 レベル(2) を指定してください。通常運用時は指定なし(レベル(0))にします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getcf run --level 2 # チュートリアルを実行する場合は、-dオプションを追加してください</t>
-  </si>
-  <si>
-    <t xml:space="preserve">build ディレクトリ下に生成された、「check_sheet_{日付}.xlsx」を開いて検査結果を確認します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. 実行結果のコミット</t>
-  </si>
-  <si>
-    <t xml:space="preserve">結果の確認ができたら、update コマンドでインベントリ収集結果をコミットをします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getcf update local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コミットしたデータを構成管理データベースにロードする場合は、以下を実行します。　※２</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redmine プラグインのインベントリデータのロード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getcf update db</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redmine チケット登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getcf update ticket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">※２　事前に構成管理データベースへの接続設定が必要です。詳細は、&lt;インストールディレクトリ&gt;\config\cmdb_sample.groovy を参照してください。</t>
+    <t>account.Windows.Account01.user     = 'administrator'</t>
+  </si>
+  <si>
+    <t>account.Windows.Account01.password = 'P@ssw0rd'</t>
+  </si>
+  <si>
+    <t>4. インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>run コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+  </si>
+  <si>
+    <t>初期出荷時は --level オプションにて詳細 レベル(2) を指定してください。通常運用時は指定なし(レベル(0))にします。</t>
+  </si>
+  <si>
+    <t>getcf run --level 2 # チュートリアルを実行する場合は、-dオプションを追加してください</t>
+  </si>
+  <si>
+    <t>build ディレクトリ下に生成された、「check_sheet_{日付}.xlsx」を開いて検査結果を確認します。</t>
+  </si>
+  <si>
+    <t>5. 実行結果のコミット</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、update コマンドでインベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getcf update local</t>
+  </si>
+  <si>
+    <t>コミットしたデータを構成管理データベースにロードする場合は、以下を実行します。　※２</t>
+  </si>
+  <si>
+    <t>Redmine プラグインのインベントリデータのロード</t>
+  </si>
+  <si>
+    <t>getcf update db</t>
+  </si>
+  <si>
+    <t>Redmine チケット登録</t>
+  </si>
+  <si>
+    <t>getcf update ticket</t>
+  </si>
+  <si>
+    <t>※２　事前に構成管理データベースへの接続設定が必要です。詳細は、&lt;インストールディレクトリ&gt;\config\cmdb_sample.groovy を参照してください。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -296,25 +298,20 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -341,309 +338,625 @@
     </fill>
   </fills>
   <borders count="17">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="double"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="標準 2" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="3.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="0" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.76"/>
+    <col min="1" max="2" width="3.5" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="11" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +972,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -673,7 +986,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -689,7 +1002,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -705,7 +1018,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -719,7 +1032,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
@@ -735,7 +1048,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="5" t="s">
@@ -751,7 +1064,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -765,7 +1078,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -781,7 +1094,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -795,7 +1108,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -811,7 +1124,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -827,7 +1140,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -841,7 +1154,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="8" t="s">
@@ -857,7 +1170,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="9" t="s">
@@ -889,7 +1202,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10" t="s">
@@ -921,7 +1234,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="11" t="s">
@@ -945,7 +1258,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="11"/>
@@ -967,7 +1280,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="11" t="s">
@@ -991,7 +1304,7 @@
       <c r="K19" s="14"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="11"/>
@@ -1013,7 +1326,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="11" t="s">
@@ -1035,7 +1348,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="14"/>
@@ -1055,7 +1368,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="11" t="s">
@@ -1081,7 +1394,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="14"/>
@@ -1101,7 +1414,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="11" t="s">
@@ -1123,7 +1436,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="16"/>
@@ -1141,7 +1454,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="20"/>
@@ -1155,7 +1468,7 @@
       <c r="K27" s="20"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1169,7 +1482,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>44</v>
@@ -1189,7 +1502,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>44</v>
@@ -1209,7 +1522,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
@@ -1227,7 +1540,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>44</v>
@@ -1247,7 +1560,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -1265,7 +1578,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
@@ -1283,7 +1596,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
@@ -1301,7 +1614,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
@@ -1319,7 +1632,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
@@ -1337,7 +1650,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1351,7 +1664,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
@@ -1367,7 +1680,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1381,7 +1694,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -1397,7 +1710,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1411,7 +1724,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>56</v>
@@ -1427,7 +1740,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1441,7 +1754,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
@@ -1457,7 +1770,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="5" t="s">
@@ -1473,7 +1786,7 @@
       <c r="K46" s="7"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1487,7 +1800,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>59</v>
@@ -1503,7 +1816,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1517,7 +1830,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
@@ -1533,7 +1846,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="21"/>
@@ -1547,7 +1860,7 @@
       <c r="K51" s="22"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="21" t="s">
@@ -1563,7 +1876,7 @@
       <c r="K52" s="22"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="21" t="s">
@@ -1579,7 +1892,7 @@
       <c r="K53" s="22"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="21" t="s">
@@ -1595,7 +1908,7 @@
       <c r="K54" s="22"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="21"/>
@@ -1609,7 +1922,7 @@
       <c r="K55" s="22"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="21" t="s">
@@ -1625,7 +1938,7 @@
       <c r="K56" s="22"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="21"/>
@@ -1639,7 +1952,7 @@
       <c r="K57" s="22"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="21" t="s">
@@ -1655,7 +1968,7 @@
       <c r="K58" s="22"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="21" t="s">
@@ -1671,7 +1984,7 @@
       <c r="K59" s="22"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="21"/>
@@ -1685,7 +1998,7 @@
       <c r="K60" s="22"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="21" t="s">
@@ -1701,7 +2014,7 @@
       <c r="K61" s="22"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="21"/>
@@ -1715,7 +2028,7 @@
       <c r="K62" s="22"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="21" t="s">
@@ -1731,7 +2044,7 @@
       <c r="K63" s="22"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="21" t="s">
@@ -1747,7 +2060,7 @@
       <c r="K64" s="22"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="5"/>
@@ -1761,7 +2074,7 @@
       <c r="K65" s="7"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1775,7 +2088,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
@@ -1791,7 +2104,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1805,7 +2118,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>71</v>
@@ -1821,7 +2134,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>72</v>
@@ -1837,7 +2150,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1851,7 +2164,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="23" t="s">
@@ -1867,7 +2180,7 @@
       <c r="K72" s="25"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1881,7 +2194,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>74</v>
@@ -1897,7 +2210,7 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1911,7 +2224,7 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -1927,7 +2240,7 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1941,7 +2254,7 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
         <v>76</v>
@@ -1957,7 +2270,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1971,7 +2284,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="23" t="s">
@@ -1987,7 +2300,7 @@
       <c r="K80" s="25"/>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2001,7 +2314,7 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>78</v>
@@ -2017,7 +2330,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2031,7 +2344,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
@@ -2047,7 +2360,7 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="23" t="s">
@@ -2063,7 +2376,7 @@
       <c r="K85" s="25"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2077,7 +2390,7 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
@@ -2093,7 +2406,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="23" t="s">
@@ -2109,7 +2422,7 @@
       <c r="K88" s="25"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2123,38 +2436,22 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="0" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C90" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D17:D19 D21" type="list">
-      <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D20" type="list">
-      <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D22" type="list">
-      <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D23:D24" type="list">
-      <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D25:D26" type="list">
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D17:D26" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -2162,24 +2459,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="44.25"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="44.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -2192,7 +2484,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -2221,7 +2513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
@@ -2250,7 +2542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -2261,7 +2553,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -2272,7 +2564,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -2283,7 +2575,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -2294,7 +2586,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -2305,7 +2597,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -2316,7 +2608,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -2327,7 +2619,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -2338,7 +2630,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -2349,7 +2641,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
@@ -2360,7 +2652,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="11"/>
       <c r="C14" s="13"/>
@@ -2371,7 +2663,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -2382,7 +2674,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="11"/>
       <c r="C16" s="13"/>
@@ -2393,7 +2685,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="11"/>
       <c r="C17" s="13"/>
@@ -2404,7 +2696,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="11"/>
       <c r="C18" s="13"/>
@@ -2415,7 +2707,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="11"/>
       <c r="C19" s="13"/>
@@ -2426,7 +2718,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
       <c r="B20" s="11"/>
       <c r="C20" s="27"/>
@@ -2437,7 +2729,7 @@
       <c r="H20" s="28"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
       <c r="B21" s="11"/>
       <c r="C21" s="27"/>
@@ -2448,7 +2740,7 @@
       <c r="H21" s="28"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
       <c r="B22" s="11"/>
       <c r="C22" s="27"/>
@@ -2459,7 +2751,7 @@
       <c r="H22" s="28"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
       <c r="B23" s="11"/>
       <c r="C23" s="27"/>
@@ -2470,7 +2762,7 @@
       <c r="H23" s="28"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
       <c r="B24" s="11"/>
       <c r="C24" s="27"/>
@@ -2482,16 +2774,15 @@
       <c r="I24" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4:B24" type="list">
-      <formula1>"Linux,Windows,Windows.py,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachiVSP,NetApp,Eternus,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
-      <formula2>0</formula2>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="B4:B24" xr:uid="{69CB4665-B520-47F5-B065-435A60509B8A}">
+      <formula1>"Linux,Windows,Windows.py,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachiVSP,NetApp,Eternus,Alltera,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -2499,628 +2790,619 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.00390625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.89"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="15"/>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="29"/>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="29"/>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="29"/>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="29"/>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="29"/>
     </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="29"/>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="29"/>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="29"/>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="29"/>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="29"/>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="29"/>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="29"/>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="29"/>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="29"/>
     </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="29"/>
     </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="29"/>
     </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="29"/>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="29"/>
     </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="29"/>
     </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="29"/>
     </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="29"/>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="29"/>
     </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="29"/>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="29"/>
     </row>
-    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="29"/>
     </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="29"/>
     </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="29"/>
     </row>
-    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="29"/>
     </row>
-    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="29"/>
     </row>
-    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="29"/>
     </row>
-    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="29"/>
     </row>
-    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="29"/>
     </row>
-    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
     </row>
-    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
     </row>
-    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
     </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
     </row>
-    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
     </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
     </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="29"/>
     </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="29"/>
     </row>
-    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
     </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
     </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="29"/>
     </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="29"/>
     </row>
-    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="29"/>
     </row>
-    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="29"/>
     </row>
-    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="29"/>
     </row>
-    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="29"/>
     </row>
-    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="29"/>
     </row>
-    <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="29"/>
     </row>
-    <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="29"/>
     </row>
-    <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="29"/>
     </row>
-    <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="29"/>
     </row>
-    <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="29"/>
     </row>
-    <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="29"/>
     </row>
-    <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="29"/>
     </row>
-    <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="29"/>
     </row>
-    <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="29"/>
     </row>
-    <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="29"/>
     </row>
-    <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="29"/>
     </row>
-    <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="29"/>
     </row>
-    <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="29"/>
     </row>
-    <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="29"/>
     </row>
-    <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="29"/>
     </row>
-    <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="29"/>
     </row>
-    <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="29"/>
     </row>
-    <row r="84" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="29"/>
     </row>
-    <row r="85" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="29"/>
     </row>
-    <row r="86" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="29"/>
     </row>
-    <row r="87" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="29"/>
     </row>
-    <row r="88" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="29"/>
     </row>
-    <row r="89" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="29"/>
     </row>
-    <row r="90" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="29"/>
     </row>
-    <row r="91" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="29"/>
     </row>
-    <row r="92" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="29"/>
     </row>
-    <row r="93" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="29"/>
     </row>
-    <row r="94" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="29"/>
     </row>
-    <row r="95" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="29"/>
     </row>
-    <row r="96" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="29"/>
     </row>
-    <row r="97" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="29"/>
     </row>
-    <row r="98" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="29"/>
     </row>
-    <row r="99" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="29"/>
     </row>
-    <row r="100" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="29"/>
     </row>
-    <row r="101" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="29"/>
     </row>
-    <row r="102" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="29"/>
     </row>
-    <row r="103" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="29"/>
     </row>
-    <row r="104" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="29"/>
     </row>
-    <row r="105" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="29"/>
     </row>
-    <row r="106" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="29"/>
     </row>
-    <row r="107" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="29"/>
     </row>
-    <row r="108" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="29"/>
     </row>
-    <row r="109" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="29"/>
     </row>
-    <row r="110" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="29"/>
     </row>
-    <row r="111" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="29"/>
     </row>
-    <row r="112" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="29"/>
     </row>
-    <row r="113" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="29"/>
     </row>
-    <row r="114" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="29"/>
     </row>
-    <row r="115" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="29"/>
     </row>
-    <row r="116" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="29"/>
     </row>
-    <row r="117" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="29"/>
     </row>
-    <row r="118" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="29"/>
     </row>
-    <row r="119" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="29"/>
     </row>
-    <row r="120" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="29"/>
     </row>
-    <row r="121" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="29"/>
     </row>
-    <row r="122" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="29"/>
     </row>
-    <row r="123" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="29"/>
     </row>
-    <row r="124" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="29"/>
     </row>
-    <row r="125" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="29"/>
     </row>
-    <row r="126" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="29"/>
     </row>
-    <row r="127" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="29"/>
     </row>
-    <row r="128" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="29"/>
     </row>
-    <row r="129" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="29"/>
     </row>
-    <row r="130" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="29"/>
     </row>
-    <row r="131" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="29"/>
     </row>
-    <row r="132" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="29"/>
     </row>
-    <row r="133" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="29"/>
     </row>
-    <row r="134" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="29"/>
     </row>
-    <row r="135" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="29"/>
     </row>
-    <row r="136" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="29"/>
     </row>
-    <row r="137" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="29"/>
     </row>
-    <row r="138" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="29"/>
     </row>
-    <row r="139" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="29"/>
     </row>
-    <row r="140" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="29"/>
     </row>
-    <row r="141" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="29"/>
     </row>
-    <row r="142" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="29"/>
     </row>
-    <row r="143" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="29"/>
     </row>
-    <row r="144" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="29"/>
     </row>
-    <row r="145" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="29"/>
     </row>
-    <row r="146" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="29"/>
     </row>
-    <row r="147" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="29"/>
     </row>
-    <row r="148" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="29"/>
     </row>
-    <row r="149" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="29"/>
     </row>
-    <row r="150" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="29"/>
     </row>
-    <row r="151" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="29"/>
     </row>
-    <row r="152" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="29"/>
     </row>
-    <row r="153" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="29"/>
     </row>
-    <row r="154" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="29"/>
     </row>
-    <row r="155" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="29"/>
     </row>
-    <row r="156" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="29"/>
     </row>
-    <row r="157" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="29"/>
     </row>
-    <row r="158" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="29"/>
     </row>
-    <row r="159" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="29"/>
     </row>
-    <row r="160" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="29"/>
     </row>
-    <row r="161" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="29"/>
     </row>
-    <row r="162" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="29"/>
     </row>
-    <row r="163" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="29"/>
     </row>
-    <row r="164" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="29"/>
     </row>
-    <row r="165" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="29"/>
     </row>
-    <row r="166" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="29"/>
     </row>
-    <row r="167" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="29"/>
     </row>
-    <row r="168" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="29"/>
     </row>
-    <row r="169" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="29"/>
     </row>
-    <row r="170" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="29"/>
     </row>
-    <row r="171" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="29"/>
     </row>
-    <row r="172" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="29"/>
     </row>
-    <row r="173" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="29"/>
     </row>
-    <row r="174" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="29"/>
     </row>
-    <row r="175" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="29"/>
     </row>
-    <row r="176" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="29"/>
     </row>
-    <row r="177" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="29"/>
     </row>
-    <row r="178" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="29"/>
     </row>
-    <row r="179" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="29"/>
     </row>
-    <row r="180" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="29"/>
     </row>
-    <row r="181" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="29"/>
     </row>
-    <row r="182" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="29"/>
     </row>
-    <row r="183" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="29"/>
     </row>
-    <row r="184" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="29"/>
     </row>
-    <row r="185" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="29"/>
     </row>
-    <row r="186" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="29"/>
     </row>
-    <row r="187" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="29"/>
     </row>
-    <row r="188" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="29"/>
     </row>
-    <row r="189" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="29"/>
     </row>
-    <row r="190" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="29"/>
     </row>
-    <row r="191" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="29"/>
     </row>
-    <row r="192" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="29"/>
     </row>
-    <row r="193" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="29"/>
     </row>
-    <row r="194" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="29"/>
     </row>
-    <row r="195" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="29"/>
     </row>
-    <row r="196" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="29"/>
     </row>
-    <row r="197" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="29"/>
     </row>
-    <row r="198" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="29"/>
     </row>
-    <row r="199" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="29"/>
     </row>
-    <row r="200" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="29"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/main/resources/root/jp/blank_getconfig.xlsx
+++ b/src/main/resources/root/jp/blank_getconfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\getconfig\getconfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C962C11-06AD-4132-8B69-87C8E9F986C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B873C3-861D-4B52-BDDE-1FA12CFF8CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="19020" windowHeight="9120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="4665" windowWidth="33210" windowHeight="14025" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -2462,7 +2462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2776,8 +2778,8 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="B4:B24" xr:uid="{69CB4665-B520-47F5-B065-435A60509B8A}">
-      <formula1>"Linux,Windows,Windows.py,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachiVSP,NetApp,Eternus,Alltera,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="B4:B24" xr:uid="{565E6DD4-90E4-4ACF-A39A-1356A7AE7BA6}">
+      <formula1>"Linux,Windows,Windows.py,Solaris,AIX,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachiVSP,NetApp,Eternus,Alletra,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
